--- a/Communications_Board/Bill of Materials/Communications_Module.xlsx
+++ b/Communications_Board/Bill of Materials/Communications_Module.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="237">
   <si>
     <t>Approved</t>
   </si>
@@ -98,88 +98,442 @@
     <t>&lt;none&gt;</t>
   </si>
   <si>
-    <t>Communications_Module.SchDoc</t>
-  </si>
-  <si>
-    <t>Free Documents</t>
+    <t>Communications.PrjPcb</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>2:48:04 PM</t>
-  </si>
-  <si>
-    <t>Communications Modules</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Footprint</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Comment</t>
+    <t>3:28:08 PM</t>
+  </si>
+  <si>
+    <t>Bill of Materials For Project [Communications.PrjPcb] (No PCB Document Selected)</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CAPC1608L</t>
+  </si>
+  <si>
+    <t>RAD-0.3</t>
+  </si>
+  <si>
+    <t>CAPC1608N</t>
+  </si>
+  <si>
+    <t>SMB</t>
+  </si>
+  <si>
+    <t>LED-0</t>
+  </si>
+  <si>
+    <t>WL-SMCW0603</t>
+  </si>
+  <si>
+    <t>USB/SM0.8-6H5</t>
+  </si>
+  <si>
+    <t>188275-10</t>
+  </si>
+  <si>
+    <t>188275-20</t>
+  </si>
+  <si>
+    <t>INDC3216L</t>
+  </si>
+  <si>
+    <t>HDR1X3</t>
+  </si>
+  <si>
+    <t>RESC1608L</t>
+  </si>
+  <si>
+    <t>RESC1608N</t>
+  </si>
+  <si>
+    <t>AXIAL-0.3</t>
+  </si>
+  <si>
+    <t>RESC3216L</t>
+  </si>
+  <si>
+    <t>KSR211G</t>
+  </si>
+  <si>
+    <t>TP_0805</t>
+  </si>
+  <si>
+    <t>LQFP64_L</t>
+  </si>
+  <si>
+    <t>TSOP61</t>
+  </si>
+  <si>
+    <t>SOT95P280X145-5N</t>
+  </si>
+  <si>
+    <t>6.0X3.5-4</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>RN41</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>D Schottky</t>
+  </si>
+  <si>
+    <t>LED0</t>
+  </si>
+  <si>
+    <t>Dark Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>JS_USB_MINI_B</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>ARM JTAG</t>
+  </si>
+  <si>
+    <t>Ferrite Bead</t>
+  </si>
+  <si>
+    <t>Header 3</t>
+  </si>
+  <si>
+    <t>62R</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>2K2</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>27R</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>27K</t>
+  </si>
+  <si>
+    <t>47K</t>
+  </si>
+  <si>
+    <t>Res1</t>
+  </si>
+  <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>Sleep/Wake Up</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>Erase</t>
+  </si>
+  <si>
+    <t>USB_N</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>USB_P</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>nRST</t>
+  </si>
+  <si>
+    <t>TDO</t>
+  </si>
+  <si>
+    <t>TCK</t>
+  </si>
+  <si>
+    <t>TMS</t>
+  </si>
+  <si>
+    <t>TDI</t>
+  </si>
+  <si>
+    <t>V_Bus</t>
+  </si>
+  <si>
+    <t>Gnd</t>
+  </si>
+  <si>
+    <t>VddOut</t>
+  </si>
+  <si>
+    <t>ATSAM4S8BA-ANR</t>
+  </si>
+  <si>
+    <t>TSOP6136TR</t>
+  </si>
+  <si>
+    <t>TLV70233DBVR</t>
+  </si>
+  <si>
+    <t>18.432MHz</t>
   </si>
   <si>
     <t>LibRef</t>
   </si>
   <si>
-    <t>RN41</t>
+    <t>CC_10pF_0603</t>
+  </si>
+  <si>
+    <t>CC_100nF_0603</t>
   </si>
   <si>
     <t>CC_10uF_0603</t>
   </si>
   <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>LED0</t>
+    <t>CC_4.7uF_0603</t>
+  </si>
+  <si>
+    <t>DL_150060GS75000</t>
+  </si>
+  <si>
+    <t>DL_150060YS75000</t>
+  </si>
+  <si>
+    <t>DL_150060RS75000</t>
+  </si>
+  <si>
+    <t>JS_USB_MINI_B_SMT</t>
+  </si>
+  <si>
+    <t>JB_HDR_IDC_5X2_VERT</t>
+  </si>
+  <si>
+    <t>JB_HDR_IDC_10X2_VERT</t>
   </si>
   <si>
     <t>IN_Ferrite-Bead</t>
   </si>
   <si>
-    <t>Res1</t>
-  </si>
-  <si>
-    <t>TP_0805</t>
+    <t>RS_62R</t>
+  </si>
+  <si>
+    <t>RS_220R</t>
+  </si>
+  <si>
+    <t>RS_2K2</t>
+  </si>
+  <si>
+    <t>RS_1K</t>
+  </si>
+  <si>
+    <t>RS_27R</t>
+  </si>
+  <si>
+    <t>RS_100K</t>
+  </si>
+  <si>
+    <t>RS_27K</t>
+  </si>
+  <si>
+    <t>RS_47K</t>
+  </si>
+  <si>
+    <t>RT_1R</t>
+  </si>
+  <si>
+    <t>WS_KSR211G LFS</t>
+  </si>
+  <si>
+    <t>SE_ATSAM4S16BA-MU</t>
   </si>
   <si>
     <t>SV_TLV70233DBVR</t>
   </si>
   <si>
-    <t>TSOP6136TR</t>
+    <t>XT_CRYSTAL_18.432MHz_13pF</t>
   </si>
   <si>
     <t>Designator</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>C4, C5</t>
-  </si>
-  <si>
-    <t>C?</t>
-  </si>
-  <si>
-    <t>D?</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>R?</t>
-  </si>
-  <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>TP2, TP3, TP4, TP5, TP?, TP?, TP?, TP?, TP?, TP?, TP?, TP?, TP?</t>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>C3, C4, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19</t>
+  </si>
+  <si>
+    <t>C5, C6, C8, C9</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>D1, D4</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
+  </si>
+  <si>
+    <t>DL1</t>
+  </si>
+  <si>
+    <t>DL2</t>
+  </si>
+  <si>
+    <t>DL3</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>L1, L2, L3</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2, R4</t>
+  </si>
+  <si>
+    <t>R3, R9, R10</t>
+  </si>
+  <si>
+    <t>R5, R6</t>
+  </si>
+  <si>
+    <t>R7, R8</t>
+  </si>
+  <si>
+    <t>R11, R12, R13, R14, R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18, R19, R20, R21, R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>TP1, TP27</t>
+  </si>
+  <si>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>TP3</t>
+  </si>
+  <si>
+    <t>TP4</t>
+  </si>
+  <si>
+    <t>TP5</t>
+  </si>
+  <si>
+    <t>TP6</t>
+  </si>
+  <si>
+    <t>TP7</t>
+  </si>
+  <si>
+    <t>TP8</t>
+  </si>
+  <si>
+    <t>TP9</t>
+  </si>
+  <si>
+    <t>TP10</t>
+  </si>
+  <si>
+    <t>TP11</t>
+  </si>
+  <si>
+    <t>TP12, TP26</t>
+  </si>
+  <si>
+    <t>TP13, TP14, TP15, TP16, TP17, TP18, TP19, TP20, TP21, TP22, TP23, TP24, TP25, TP29, TP30, TP31</t>
+  </si>
+  <si>
+    <t>TP28</t>
+  </si>
+  <si>
+    <t>U1</t>
   </si>
   <si>
     <t>U2</t>
   </si>
   <si>
-    <t>U?</t>
+    <t>U3, U4</t>
+  </si>
+  <si>
+    <t>Y1</t>
   </si>
   <si>
     <t>Description</t>
@@ -188,28 +542,97 @@
     <t>Bluetooth RN41</t>
   </si>
   <si>
+    <t>CAP CER 10pF COG/NPO 50V 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 100nF X7R +-10% 50V 0603</t>
+  </si>
+  <si>
     <t>CAP CER 10UF X5R +-20% 10V 0603</t>
   </si>
   <si>
     <t>Capacitor</t>
   </si>
   <si>
+    <t>CAP CER 4.7uF X5R +-20%  10V 0603</t>
+  </si>
+  <si>
+    <t>Schottky Diode</t>
+  </si>
+  <si>
     <t>Typical INFRARED GaAs LED</t>
   </si>
   <si>
+    <t>LED Dk Green 430mcd 0603 SMD</t>
+  </si>
+  <si>
+    <t>LED Yellow 120mcd 0603 SMD</t>
+  </si>
+  <si>
+    <t>LED Red 250mcd 0603 SMD</t>
+  </si>
+  <si>
+    <t>USB 2.0, Right Angle, SMT, B Type, Receptacle, 5 Position,</t>
+  </si>
+  <si>
+    <t>IDC Header, 1,27mm, 10-Pin, Vert, SMT</t>
+  </si>
+  <si>
+    <t>IDC Header, 1,27mm, 20-Pin, Vert, SMT</t>
+  </si>
+  <si>
     <t>Ferrite Bead, Rdc 0.3R, Z100MHZ 600R, Imax 1A, SMD 1206</t>
   </si>
   <si>
+    <t>Header, 3-Pin</t>
+  </si>
+  <si>
+    <t>RES 62 OHM 1/10W 5% 0603 SMD</t>
+  </si>
+  <si>
+    <t>RES 220 OHM 1/10W 5% 0603 SMD</t>
+  </si>
+  <si>
+    <t>RES 2.2K OHM 1/10W 5% 0603 SMD</t>
+  </si>
+  <si>
+    <t>RES 1.0K OHM 1/10W 5% 0603 SMD</t>
+  </si>
+  <si>
+    <t>RES 27 OHM 1/10W 5% 0603 SMD</t>
+  </si>
+  <si>
+    <t>RES 100K OHM 1/10W 5% 0603 SMD</t>
+  </si>
+  <si>
+    <t>RES 27K OHM 1/10W 5% 0603 SMD</t>
+  </si>
+  <si>
+    <t>RES 47.0K OHM 1/10W 5% 0603 SMD</t>
+  </si>
+  <si>
     <t>Resistor</t>
   </si>
   <si>
+    <t>RES 1R OHM 1/4W 5% 1206 SMD</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE SPST-NO SMD</t>
+  </si>
+  <si>
     <t>Test Point 2.0X0.9X1.2mm SMD</t>
   </si>
   <si>
+    <t>IC MCU 32BIT 512KB FLASH 64LQFP</t>
+  </si>
+  <si>
+    <t>Infrared Receiver 36KHz</t>
+  </si>
+  <si>
     <t>IC REG LDO 3.3V 0.3A SOT23-5</t>
   </si>
   <si>
-    <t>Infrared Receiver 36KHz</t>
+    <t>18.432 MHZ 4PF  6.0X3.5mm SMD</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -227,16 +650,43 @@
     <t>Supplier Part Number 1</t>
   </si>
   <si>
+    <t>2322070</t>
+  </si>
+  <si>
+    <t>2322074</t>
+  </si>
+  <si>
+    <t>2322071</t>
+  </si>
+  <si>
+    <t>1824416</t>
+  </si>
+  <si>
+    <t>A99476TR-ND</t>
+  </si>
+  <si>
+    <t>A99481CT-ND</t>
+  </si>
+  <si>
     <t>1612060</t>
   </si>
   <si>
+    <t>1437634</t>
+  </si>
+  <si>
     <t>A106144CT-ND</t>
   </si>
   <si>
+    <t>ATSAM4S8BA-ANRCT-ND</t>
+  </si>
+  <si>
+    <t>1779685</t>
+  </si>
+  <si>
     <t>296-32415-1-ND</t>
   </si>
   <si>
-    <t>1779685</t>
+    <t>CTX668CT-ND</t>
   </si>
   <si>
     <t>Supplier 2</t>
@@ -248,34 +698,13 @@
     <t>TSOP6136TR-ND</t>
   </si>
   <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>FAIR-RITE</t>
-  </si>
-  <si>
-    <t>TE Connectivity AMP Connectors</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>Vishay Semiconductor Opto Division</t>
-  </si>
-  <si>
-    <t>Manufacturer Part Number</t>
-  </si>
-  <si>
-    <t>2512066017Y1</t>
-  </si>
-  <si>
-    <t>1625854-2</t>
-  </si>
-  <si>
-    <t>TLV70233DBVR</t>
-  </si>
-  <si>
-    <t>Manufacturer PN</t>
+    <t>#Column Name Error:Manufacturer</t>
+  </si>
+  <si>
+    <t>#Column Name Error:Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>#Column Name Error:Manufacturer PN</t>
   </si>
   <si>
     <t>Supplier Stock 1</t>
@@ -284,13 +713,13 @@
     <t>Supplier Stock 2</t>
   </si>
   <si>
-    <t>P:\wacky_race_team7\Communications_Board\Communications_Module.SchDoc</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>3/20/2017 2:48:04 PM</t>
+    <t>P:\wacky_race_team7\Communications_Board\Communications.PrjPcb</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>3/20/2017 3:28:08 PM</t>
   </si>
   <si>
     <t>BOM_PartType</t>
@@ -762,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -783,9 +1212,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -842,9 +1268,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1021,6 +1444,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1032,9 +1458,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1364,7 +1787,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
@@ -1373,11 +1796,11 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="12" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="67" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="65" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="4" customWidth="1"/>
@@ -1385,36 +1808,36 @@
     <col min="11" max="11" width="20.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" style="4" customWidth="1"/>
     <col min="13" max="13" width="25.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="67" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="65" customWidth="1"/>
     <col min="15" max="15" width="21.140625" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="70"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="86" t="s">
-        <v>31</v>
+      <c r="B2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="84" t="s">
+        <v>30</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1426,17 +1849,17 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="71"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1447,17 +1870,17 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="72"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="59"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="57"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1468,15 +1891,15 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="72"/>
+      <c r="O4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="85" t="s">
-        <v>29</v>
+      <c r="B5" s="28"/>
+      <c r="C5" s="83" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -1489,34 +1912,34 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="72"/>
+      <c r="O5" s="70"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="57"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="73"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="71"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="81" t="s">
-        <v>30</v>
+      <c r="C7" s="79" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="3"/>
@@ -1529,7 +1952,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="72"/>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1541,7 +1964,7 @@
       </c>
       <c r="C8" s="10">
         <f ca="1">NOW()</f>
-        <v>42814.616760532408</v>
+        <v>42814.644626504632</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="3"/>
@@ -1554,12 +1977,12 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="72"/>
+      <c r="O8" s="70"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="8"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1571,16 +1994,16 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="72"/>
+      <c r="O9" s="70"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="8"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1592,16 +2015,16 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="72"/>
+      <c r="O10" s="70"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="8"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1613,12 +2036,12 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="72"/>
+      <c r="O11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1630,631 +2053,1985 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="72"/>
-    </row>
-    <row r="13" spans="1:15" s="33" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="88" t="s">
+      <c r="O12" s="70"/>
+    </row>
+    <row r="13" spans="1:15" s="31" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="K13" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="L13" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="M13" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="N13" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="O13" s="93" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="29">
+        <v>1</v>
+      </c>
+      <c r="G14" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="78"/>
+    </row>
+    <row r="15" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="B15" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="29">
+        <v>2</v>
+      </c>
+      <c r="G15" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="78"/>
+    </row>
+    <row r="16" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="29">
+        <v>12</v>
+      </c>
+      <c r="G16" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="78"/>
+    </row>
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="29">
+        <v>4</v>
+      </c>
+      <c r="G17" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="78"/>
+    </row>
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="B18" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="29">
+        <v>1</v>
+      </c>
+      <c r="G18" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="78"/>
+    </row>
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="78"/>
+    </row>
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="29">
+        <v>2</v>
+      </c>
+      <c r="G20" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="78"/>
+    </row>
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="29">
+        <v>2</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="78"/>
+    </row>
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="29">
+        <v>1</v>
+      </c>
+      <c r="G22" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="I22" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67">
+        <v>6046</v>
+      </c>
+      <c r="O22" s="78"/>
+    </row>
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="29">
+        <v>1</v>
+      </c>
+      <c r="G23" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="92" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67">
+        <v>16222</v>
+      </c>
+      <c r="O23" s="78"/>
+    </row>
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="29">
+        <v>1</v>
+      </c>
+      <c r="G24" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67">
+        <v>9262</v>
+      </c>
+      <c r="O24" s="78"/>
+    </row>
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="29">
+        <v>1</v>
+      </c>
+      <c r="G25" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="I25" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="78"/>
+    </row>
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="29">
+        <v>1</v>
+      </c>
+      <c r="G26" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="I26" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67">
+        <v>7200</v>
+      </c>
+      <c r="O26" s="78"/>
+    </row>
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="29">
+        <v>1</v>
+      </c>
+      <c r="G27" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="92" t="s">
+        <v>216</v>
+      </c>
+      <c r="I27" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67">
+        <v>4480</v>
+      </c>
+      <c r="O27" s="78"/>
+    </row>
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="29">
+        <v>3</v>
+      </c>
+      <c r="G28" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="I28" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67">
+        <v>79162</v>
+      </c>
+      <c r="O28" s="78"/>
+    </row>
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="78"/>
+    </row>
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="93" t="s">
+      <c r="B30" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="29">
+        <v>1</v>
+      </c>
+      <c r="G30" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="78"/>
+    </row>
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="29">
+        <v>2</v>
+      </c>
+      <c r="G31" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="78"/>
+    </row>
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="86" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" s="29">
+        <v>3</v>
+      </c>
+      <c r="G32" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="78"/>
+    </row>
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="93" t="s">
+      <c r="C33" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="29">
+        <v>2</v>
+      </c>
+      <c r="G33" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="78"/>
+    </row>
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="93" t="s">
+      <c r="C34" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="29">
+        <v>2</v>
+      </c>
+      <c r="G34" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="78"/>
+    </row>
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="29">
+        <v>5</v>
+      </c>
+      <c r="G35" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="78"/>
+    </row>
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="93" t="s">
+      <c r="C36" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" s="29">
+        <v>1</v>
+      </c>
+      <c r="G36" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="78"/>
+    </row>
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="29">
+        <v>1</v>
+      </c>
+      <c r="G37" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="78"/>
+    </row>
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="29">
+        <v>5</v>
+      </c>
+      <c r="G38" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="78"/>
+    </row>
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="29">
+        <v>1</v>
+      </c>
+      <c r="G39" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="78"/>
+    </row>
+    <row r="40" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="29">
+        <v>1</v>
+      </c>
+      <c r="G40" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="I40" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67">
+        <v>5210</v>
+      </c>
+      <c r="O40" s="78"/>
+    </row>
+    <row r="41" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="M13" s="93" t="s">
+      <c r="C41" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" s="29">
+        <v>1</v>
+      </c>
+      <c r="G41" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="I41" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67">
+        <v>5210</v>
+      </c>
+      <c r="O41" s="78"/>
+    </row>
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" s="29">
+        <v>2</v>
+      </c>
+      <c r="G42" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O42" s="78"/>
+    </row>
+    <row r="43" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="29">
+        <v>1</v>
+      </c>
+      <c r="G43" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I43" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O43" s="78"/>
+    </row>
+    <row r="44" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="29">
+        <v>1</v>
+      </c>
+      <c r="G44" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O44" s="78"/>
+    </row>
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="93" t="s">
+      <c r="C45" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="29">
+        <v>1</v>
+      </c>
+      <c r="G45" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I45" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O45" s="78"/>
+    </row>
+    <row r="46" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="O13" s="95" t="s">
+      <c r="C46" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="29">
+        <v>1</v>
+      </c>
+      <c r="G46" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O46" s="78"/>
+    </row>
+    <row r="47" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="88" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="31">
+      <c r="C47" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="29">
         <v>1</v>
       </c>
-      <c r="G14" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="69"/>
-      <c r="O14" s="80"/>
-    </row>
-    <row r="15" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="31">
+      <c r="G47" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H47" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O47" s="78"/>
+    </row>
+    <row r="48" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" s="29">
+        <v>1</v>
+      </c>
+      <c r="G48" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I48" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O48" s="78"/>
+    </row>
+    <row r="49" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="29">
+        <v>1</v>
+      </c>
+      <c r="G49" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I49" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O49" s="78"/>
+    </row>
+    <row r="50" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="29">
+        <v>1</v>
+      </c>
+      <c r="G50" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I50" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O50" s="78"/>
+    </row>
+    <row r="51" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="29">
+        <v>1</v>
+      </c>
+      <c r="G51" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H51" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I51" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O51" s="78"/>
+    </row>
+    <row r="52" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="29">
+        <v>1</v>
+      </c>
+      <c r="G52" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O52" s="78"/>
+    </row>
+    <row r="53" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="29">
         <v>2</v>
       </c>
-      <c r="G15" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="69"/>
-      <c r="O15" s="80"/>
-    </row>
-    <row r="16" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="31">
+      <c r="G53" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H53" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I53" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O53" s="78"/>
+    </row>
+    <row r="54" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="29">
+        <v>16</v>
+      </c>
+      <c r="G54" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H54" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I54" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O54" s="78"/>
+    </row>
+    <row r="55" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="29">
         <v>1</v>
       </c>
-      <c r="G16" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="69"/>
-      <c r="O16" s="80"/>
-    </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="31">
+      <c r="G55" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I55" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67">
+        <v>48483</v>
+      </c>
+      <c r="O55" s="78"/>
+    </row>
+    <row r="56" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="F56" s="29">
+        <v>1</v>
+      </c>
+      <c r="G56" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H56" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="I56" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67">
+        <v>0</v>
+      </c>
+      <c r="O56" s="78"/>
+    </row>
+    <row r="57" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" s="29">
+        <v>1</v>
+      </c>
+      <c r="G57" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H57" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="I57" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="J57" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="86" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="29">
         <v>2</v>
       </c>
-      <c r="G17" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="69"/>
-      <c r="O17" s="80"/>
-    </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="31">
+      <c r="G58" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="I58" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67">
+        <v>27296</v>
+      </c>
+      <c r="O58" s="78"/>
+    </row>
+    <row r="59" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="29">
         <v>1</v>
       </c>
-      <c r="G18" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="N18" s="69">
-        <v>79162</v>
-      </c>
-      <c r="O18" s="80"/>
-    </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="31">
-        <v>5</v>
-      </c>
-      <c r="G19" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="69"/>
-      <c r="O19" s="80"/>
-    </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="31">
+      <c r="G59" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H59" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="I59" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67">
+        <v>913</v>
+      </c>
+      <c r="O59" s="78"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="60"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="30">
+        <f>SUM(F14:F59)</f>
+        <v>96</v>
+      </c>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="63"/>
+    </row>
+    <row r="61" spans="1:15" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="34"/>
+      <c r="C61" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="69">
-        <v>48483</v>
-      </c>
-      <c r="O20" s="80"/>
-    </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="31">
-        <v>13</v>
-      </c>
-      <c r="G21" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="69">
-        <v>48483</v>
-      </c>
-      <c r="O21" s="80"/>
-    </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="31">
-        <v>1</v>
-      </c>
-      <c r="G22" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22" s="69">
-        <v>27296</v>
-      </c>
-      <c r="O22" s="80"/>
-    </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="31">
-        <v>1</v>
-      </c>
-      <c r="G23" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="69"/>
-      <c r="O23" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="32">
-        <f>SUM(F14:F23)</f>
-        <v>28</v>
-      </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="65"/>
-    </row>
-    <row r="25" spans="1:15" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="74"/>
-    </row>
-    <row r="26" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="75"/>
-    </row>
-    <row r="27" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="76"/>
-    </row>
-    <row r="28" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="76"/>
-    </row>
-    <row r="29" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="76"/>
-    </row>
-    <row r="30" spans="1:15" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="77"/>
-    </row>
-    <row r="31" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="77"/>
-    </row>
-    <row r="32" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="78"/>
-    </row>
-    <row r="33" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="79"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="72"/>
+    </row>
+    <row r="62" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="46"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="73"/>
+    </row>
+    <row r="63" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="44"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="74"/>
+    </row>
+    <row r="64" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="44"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="74"/>
+    </row>
+    <row r="65" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="44"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="74"/>
+    </row>
+    <row r="66" spans="1:15" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="45"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="75"/>
+    </row>
+    <row r="67" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="45"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="75"/>
+    </row>
+    <row r="68" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="76"/>
+    </row>
+    <row r="69" spans="1:15" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2276,119 +4053,119 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="108.5703125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="108.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="96" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="97" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="98" t="s">
+    <row r="4" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="95" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="97" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="98" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="96" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="97" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="B10" s="95" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="96" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="97" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="B12" s="95" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="98" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="B13" s="96" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="15" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="97" t="s">
         <v>21</v>
       </c>
     </row>
